--- a/SuRGE_Sharepoint/data/CIN/CH4_103_Piney_Run/dataSheets/surgeData103.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_103_Piney_Run/dataSheets/surgeData103.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_103_Piney_Run/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_103_Piney_Run/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{540766DD-96BB-4564-967A-D108A9403347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD9099F-00F1-4262-99A1-CDD219BB6B4C}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{540766DD-96BB-4564-967A-D108A9403347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BADC46A8-878F-4B03-BE2A-D6ACDC83D266}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BP$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1337,14 +1337,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1382,7 +1378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1488,7 +1484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1630,7 +1626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1641,78 +1637,78 @@
   <dimension ref="A1:BZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE18" sqref="BE18"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT5" sqref="BT5:BV5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.26953125" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" customWidth="1"/>
-    <col min="31" max="31" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.21875" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.26953125" customWidth="1"/>
-    <col min="51" max="51" width="8.26953125" customWidth="1"/>
-    <col min="52" max="52" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.26953125" customWidth="1"/>
-    <col min="65" max="65" width="14.81640625" customWidth="1"/>
-    <col min="66" max="66" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.21875" customWidth="1"/>
+    <col min="51" max="51" width="8.21875" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.21875" customWidth="1"/>
+    <col min="65" max="65" width="14.77734375" customWidth="1"/>
+    <col min="66" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1804,7 +1800,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -2140,15 +2136,6 @@
       <c r="BE3">
         <v>0.3</v>
       </c>
-      <c r="BT3" t="s">
-        <v>196</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>197</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>198</v>
-      </c>
       <c r="BW3">
         <v>2.0718999999999999</v>
       </c>
@@ -2162,7 +2149,7 @@
         <v>0.68969907407407405</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -2263,7 +2250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -2360,8 +2347,17 @@
       <c r="BE5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -2459,7 +2455,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>182</v>
       </c>
@@ -2557,7 +2553,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
@@ -2658,7 +2654,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>182</v>
       </c>
@@ -2759,7 +2755,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>182</v>
       </c>
@@ -2839,7 +2835,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>182</v>
       </c>
@@ -2940,7 +2936,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>182</v>
       </c>
@@ -3038,7 +3034,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>182</v>
       </c>
@@ -3136,7 +3132,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>182</v>
       </c>
@@ -3234,7 +3230,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>182</v>
       </c>
@@ -3338,7 +3334,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>182</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>182</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>182</v>
       </c>
@@ -3554,7 +3550,7 @@
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>182</v>
       </c>
@@ -3565,7 +3561,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>182</v>
       </c>
@@ -3576,7 +3572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>182</v>
       </c>
@@ -3610,14 +3606,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3628,7 +3624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3639,7 +3635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3661,7 +3657,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3672,7 +3668,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3679,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3694,7 +3690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3705,7 +3701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3716,7 +3712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3738,7 +3734,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3756,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3768,7 +3764,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3779,7 +3775,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3787,7 +3783,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3798,7 +3794,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3806,7 +3802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +3813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3825,7 +3821,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3847,7 +3843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3869,7 +3865,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3880,7 +3876,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3891,7 +3887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3899,7 +3895,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3910,7 +3906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3921,7 +3917,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3932,7 +3928,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3943,7 +3939,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3965,7 +3961,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3976,7 +3972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3987,7 +3983,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3998,7 +3994,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4006,7 +4002,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -4014,7 +4010,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4022,7 +4018,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4030,7 +4026,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -4038,7 +4034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -4046,7 +4042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -4054,7 +4050,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4062,7 +4058,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -4078,7 +4074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4086,7 +4082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4094,7 +4090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4110,7 +4106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4121,7 +4117,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4132,7 +4128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4154,7 +4150,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4165,7 +4161,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4176,7 +4172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4187,7 +4183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4198,7 +4194,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4206,7 +4202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4214,7 +4210,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4222,7 +4218,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4230,7 +4226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4246,7 +4242,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4254,7 +4250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4262,7 +4258,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4270,7 +4266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4278,7 +4274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4286,7 +4282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4294,7 +4290,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4302,7 +4298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4310,7 +4306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4321,7 +4317,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4332,7 +4328,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4354,7 +4350,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4365,7 +4361,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4376,7 +4372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4400,17 +4396,17 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4426,7 +4422,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4460,7 +4456,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>182</v>
       </c>
@@ -4489,7 +4485,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>182</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>182</v>
       </c>
@@ -4547,7 +4543,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>182</v>
       </c>
@@ -4576,7 +4572,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>182</v>
       </c>
@@ -4605,7 +4601,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>182</v>
       </c>
@@ -4651,14 +4647,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4669,7 +4665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4680,7 +4676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4687,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>163</v>
       </c>
@@ -4702,7 +4698,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>164</v>
       </c>
@@ -4713,7 +4709,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>165</v>
       </c>
@@ -4724,7 +4720,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>166</v>
       </c>
@@ -4732,7 +4728,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>167</v>
       </c>
@@ -4743,7 +4739,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>168</v>
       </c>
@@ -4754,7 +4750,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>169</v>
       </c>
@@ -4771,6 +4767,48 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5241,49 +5279,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5292,16 +5293,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F451A8F8-0C21-4E1B-9F8A-CAF8C1BF5946}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5315,18 +5307,41 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F451A8F8-0C21-4E1B-9F8A-CAF8C1BF5946}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>